--- a/tests/Gauges/tLists4_complexRange.xlsx
+++ b/tests/Gauges/tLists4_complexRange.xlsx
@@ -423,14 +423,125 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="39">
+  <x:cellStyleXfs count="47">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="9" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="5" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -447,93 +558,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="9" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -715,196 +739,196 @@
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="center" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -914,24 +938,13 @@
   <x:dxfs count="2">
     <x:dxf>
       <x:font>
-        <x:b val="0"/>
-        <x:i val="0"/>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:color indexed="30"/>
+        <x:color indexed="16"/>
       </x:font>
     </x:dxf>
     <x:dxf>
       <x:font>
-        <x:condense val="0"/>
-        <x:extend val="0"/>
-        <x:color indexed="16"/>
+        <x:color indexed="30"/>
       </x:font>
-      <x:fill>
-        <x:patternFill patternType="none">
-          <x:bgColor indexed="65"/>
-        </x:patternFill>
-      </x:fill>
     </x:dxf>
   </x:dxfs>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1404,65 +1417,55 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="11.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="2.164062" style="68" customWidth="1"/>
-    <x:col min="2" max="2" width="11" style="68" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="10.664062" style="68" customWidth="1"/>
-    <x:col min="4" max="4" width="2.832031" style="68" customWidth="1"/>
-    <x:col min="5" max="10" width="10.832031" style="68" customWidth="1"/>
+    <x:col min="1" max="1" width="2.164062" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="10.664062" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="2.832031" style="0" customWidth="1"/>
+    <x:col min="5" max="10" width="10.832031" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10" customFormat="1" ht="51" customHeight="1">
-      <x:c r="A1" s="68" t="s"/>
-      <x:c r="B1" s="71" t="s">
+      <x:c r="B1" s="68" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C1" s="71" t="s"/>
-      <x:c r="D1" s="71" t="s"/>
-      <x:c r="E1" s="71" t="s"/>
-      <x:c r="F1" s="71" t="s"/>
-      <x:c r="G1" s="71" t="s"/>
-      <x:c r="H1" s="71" t="s"/>
-      <x:c r="I1" s="71" t="s"/>
-      <x:c r="J1" s="71" t="s"/>
+      <x:c r="C1" s="68" t="s"/>
+      <x:c r="D1" s="68" t="s"/>
+      <x:c r="E1" s="68" t="s"/>
+      <x:c r="F1" s="68" t="s"/>
+      <x:c r="G1" s="68" t="s"/>
+      <x:c r="H1" s="68" t="s"/>
+      <x:c r="I1" s="68" t="s"/>
+      <x:c r="J1" s="68" t="s"/>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="6.95" customHeight="1">
-      <x:c r="A2" s="68" t="s"/>
-      <x:c r="B2" s="72" t="s"/>
-      <x:c r="C2" s="72" t="s"/>
-      <x:c r="D2" s="72" t="s"/>
-      <x:c r="E2" s="72" t="s"/>
-      <x:c r="F2" s="72" t="s"/>
-      <x:c r="G2" s="72" t="s"/>
-      <x:c r="H2" s="72" t="s"/>
-      <x:c r="I2" s="72" t="s"/>
-      <x:c r="J2" s="68" t="s"/>
+      <x:c r="B2" s="69" t="s"/>
+      <x:c r="C2" s="69" t="s"/>
+      <x:c r="D2" s="69" t="s"/>
+      <x:c r="E2" s="69" t="s"/>
+      <x:c r="F2" s="69" t="s"/>
+      <x:c r="G2" s="69" t="s"/>
+      <x:c r="H2" s="69" t="s"/>
+      <x:c r="I2" s="69" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1">
-      <x:c r="A3" s="73" t="s"/>
-      <x:c r="B3" s="74" t="s">
+      <x:c r="A3" s="70" t="s"/>
+      <x:c r="B3" s="71" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="75" t="s">
+      <x:c r="C3" s="45" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="76" t="s"/>
-      <x:c r="E3" s="77" t="s"/>
-      <x:c r="F3" s="77" t="s"/>
-      <x:c r="G3" s="77" t="s"/>
-      <x:c r="H3" s="77" t="s"/>
-      <x:c r="I3" s="77" t="s"/>
-      <x:c r="J3" s="78" t="s"/>
+      <x:c r="D3" s="26" t="s"/>
+      <x:c r="E3" s="19" t="s"/>
+      <x:c r="F3" s="19" t="s"/>
+      <x:c r="G3" s="19" t="s"/>
+      <x:c r="H3" s="19" t="s"/>
+      <x:c r="I3" s="19" t="s"/>
+      <x:c r="J3" s="33" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="68" t="s"/>
-      <x:c r="B4" s="79" t="s"/>
-      <x:c r="C4" s="68" t="s"/>
-      <x:c r="D4" s="68" t="s"/>
-      <x:c r="E4" s="68" t="s"/>
-      <x:c r="F4" s="68" t="s"/>
-      <x:c r="G4" s="68" t="s"/>
-      <x:c r="H4" s="68" t="s"/>
-      <x:c r="I4" s="74" t="s">
+      <x:c r="B4" s="72" t="s"/>
+      <x:c r="I4" s="71" t="s">
         <x:v>3</x:v>
       </x:c>
       <x:c r="J4" s="34" t="n">
@@ -1470,150 +1473,137 @@
       </x:c>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="68" t="s"/>
-      <x:c r="B5" s="74" t="s">
+      <x:c r="B5" s="71" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A6" s="68" t="s"/>
-      <x:c r="B6" s="80" t="s">
+      <x:c r="B6" s="46" t="s">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
-      <x:c r="C6" s="81" t="s"/>
-      <x:c r="D6" s="81" t="s"/>
-      <x:c r="E6" s="81" t="s"/>
-      <x:c r="F6" s="82" t="s"/>
-      <x:c r="G6" s="83" t="s"/>
-      <x:c r="H6" s="83" t="s"/>
-      <x:c r="I6" s="83" t="s"/>
-      <x:c r="J6" s="84" t="s"/>
+      <x:c r="C6" s="15" t="s"/>
+      <x:c r="D6" s="15" t="s"/>
+      <x:c r="E6" s="15" t="s"/>
+      <x:c r="F6" s="73" t="s"/>
+      <x:c r="G6" s="17" t="s"/>
+      <x:c r="H6" s="17" t="s"/>
+      <x:c r="I6" s="17" t="s"/>
+      <x:c r="J6" s="18" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10" customFormat="1" ht="6.95" customHeight="1">
-      <x:c r="A7" s="68" t="s"/>
-      <x:c r="B7" s="85" t="s"/>
-      <x:c r="C7" s="86" t="s"/>
-      <x:c r="D7" s="86" t="s"/>
-      <x:c r="E7" s="86" t="s"/>
-      <x:c r="F7" s="85" t="s"/>
-      <x:c r="G7" s="68" t="s"/>
-      <x:c r="H7" s="68" t="s"/>
-      <x:c r="I7" s="68" t="s"/>
-      <x:c r="J7" s="68" t="s"/>
+      <x:c r="B7" s="74" t="s"/>
+      <x:c r="C7" s="75" t="s"/>
+      <x:c r="D7" s="75" t="s"/>
+      <x:c r="E7" s="75" t="s"/>
+      <x:c r="F7" s="74" t="s"/>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="68" t="s"/>
-      <x:c r="B8" s="74" t="s">
+      <x:c r="B8" s="71" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E8" s="74" t="s">
+      <x:c r="E8" s="71" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="G8" s="74" t="s">
+      <x:c r="G8" s="71" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I8" s="74" t="s">
+      <x:c r="I8" s="71" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A9" s="68" t="s"/>
-      <x:c r="B9" s="87" t="s">
+      <x:c r="B9" s="47" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="C9" s="81" t="s"/>
-      <x:c r="D9" s="81" t="s"/>
-      <x:c r="E9" s="87" t="s">
+      <x:c r="C9" s="15" t="s"/>
+      <x:c r="D9" s="15" t="s"/>
+      <x:c r="E9" s="47" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="F9" s="88" t="s"/>
-      <x:c r="G9" s="87" t="s">
+      <x:c r="F9" s="76" t="s"/>
+      <x:c r="G9" s="47" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="H9" s="89" t="s"/>
-      <x:c r="I9" s="90" t="s">
+      <x:c r="H9" s="20" t="s"/>
+      <x:c r="I9" s="50" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="J9" s="89" t="s"/>
+      <x:c r="J9" s="20" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10" customFormat="1" ht="6.95" customHeight="1">
-      <x:c r="A10" s="68" t="s"/>
-      <x:c r="B10" s="91" t="s"/>
-      <x:c r="C10" s="91" t="s"/>
-      <x:c r="D10" s="91" t="s"/>
-      <x:c r="E10" s="91" t="s"/>
-      <x:c r="F10" s="91" t="s"/>
-      <x:c r="G10" s="91" t="s"/>
-      <x:c r="H10" s="91" t="s"/>
-      <x:c r="I10" s="91" t="s"/>
-      <x:c r="J10" s="91" t="s"/>
+      <x:c r="B10" s="77" t="s"/>
+      <x:c r="C10" s="77" t="s"/>
+      <x:c r="D10" s="77" t="s"/>
+      <x:c r="E10" s="77" t="s"/>
+      <x:c r="F10" s="77" t="s"/>
+      <x:c r="G10" s="77" t="s"/>
+      <x:c r="H10" s="77" t="s"/>
+      <x:c r="I10" s="77" t="s"/>
+      <x:c r="J10" s="77" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="68" t="s"/>
-      <x:c r="B11" s="92" t="s">
+      <x:c r="B11" s="78" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="C11" s="93" t="s">
+      <x:c r="C11" s="79" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D11" s="94" t="s"/>
-      <x:c r="E11" s="95" t="s">
+      <x:c r="D11" s="80" t="s"/>
+      <x:c r="E11" s="81" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="F11" s="96" t="s">
+      <x:c r="F11" s="82" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="G11" s="97" t="s">
+      <x:c r="G11" s="83" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H11" s="98" t="s"/>
-      <x:c r="I11" s="96" t="s">
+      <x:c r="H11" s="84" t="s"/>
+      <x:c r="I11" s="85" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J11" s="96" t="s"/>
+      <x:c r="J11" s="81" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="68" t="s"/>
-      <x:c r="B12" s="92" t="s"/>
-      <x:c r="C12" s="99" t="s"/>
-      <x:c r="D12" s="100" t="s">
+      <x:c r="B12" s="86" t="s"/>
+      <x:c r="C12" s="87" t="s"/>
+      <x:c r="D12" s="88" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E12" s="95" t="s"/>
-      <x:c r="F12" s="96" t="s"/>
-      <x:c r="G12" s="101" t="s"/>
-      <x:c r="H12" s="102" t="s"/>
-      <x:c r="I12" s="96" t="s"/>
-      <x:c r="J12" s="96" t="s"/>
+      <x:c r="E12" s="89" t="s"/>
+      <x:c r="F12" s="90" t="s"/>
+      <x:c r="G12" s="91" t="s"/>
+      <x:c r="H12" s="92" t="s"/>
+      <x:c r="I12" s="93" t="s"/>
+      <x:c r="J12" s="89" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="108" t="s"/>
-      <x:c r="B13" s="109" t="n">
+      <x:c r="A13" s="94" t="s"/>
+      <x:c r="B13" s="95" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C13" s="110">
+      <x:c r="C13" s="96">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D13" s="111" t="s"/>
-      <x:c r="E13" s="106" t="s">
+      <x:c r="D13" s="97" t="s"/>
+      <x:c r="E13" s="98" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F13" s="107" t="n">
+      <x:c r="F13" s="99" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="G13" s="107" t="n">
+      <x:c r="G13" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H13" s="25" t="s">
+      <x:c r="H13" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I13" s="107" t="n">
+      <x:c r="I13" s="101" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="J13" s="107" t="s"/>
+      <x:c r="J13" s="102" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="68" t="s"/>
       <x:c r="B14" s="103" t="s"/>
       <x:c r="C14" s="104">
         <x:v>32163</x:v>
@@ -1622,15 +1612,15 @@
       <x:c r="E14" s="106" t="s"/>
       <x:c r="F14" s="107" t="s"/>
       <x:c r="G14" s="107" t="s"/>
-      <x:c r="H14" s="107" t="e">
+      <x:c r="H14" s="108" t="e">
         <x:f>G13-$J$4</x:f>
       </x:c>
-      <x:c r="I14" s="107" t="s"/>
-      <x:c r="J14" s="107" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10" s="69" customFormat="1" ht="9.95" customHeight="1">
-      <x:c r="A15" s="69" t="s"/>
-      <x:c r="B15" s="70" t="s"/>
+      <x:c r="I14" s="109" t="s"/>
+      <x:c r="J14" s="110" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:10" s="42" customFormat="1" ht="9.95" customHeight="1">
+      <x:c r="A15" s="42" t="s"/>
+      <x:c r="B15" s="111" t="s"/>
       <x:c r="C15" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1647,33 +1637,32 @@
       <x:c r="J15" s="63" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A16" s="108" t="s"/>
-      <x:c r="B16" s="109" t="n">
+      <x:c r="A16" s="94" t="s"/>
+      <x:c r="B16" s="95" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C16" s="110">
+      <x:c r="C16" s="96">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D16" s="111" t="s"/>
-      <x:c r="E16" s="106" t="s">
+      <x:c r="D16" s="97" t="s"/>
+      <x:c r="E16" s="98" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F16" s="107" t="n">
+      <x:c r="F16" s="99" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="G16" s="107" t="n">
+      <x:c r="G16" s="99" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="H16" s="25" t="s">
+      <x:c r="H16" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I16" s="107" t="n">
+      <x:c r="I16" s="101" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="J16" s="107" t="s"/>
+      <x:c r="J16" s="102" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="68" t="s"/>
       <x:c r="B17" s="103" t="s"/>
       <x:c r="C17" s="104">
         <x:v>32564</x:v>
@@ -1682,15 +1671,15 @@
       <x:c r="E17" s="106" t="s"/>
       <x:c r="F17" s="107" t="s"/>
       <x:c r="G17" s="107" t="s"/>
-      <x:c r="H17" s="107">
+      <x:c r="H17" s="108">
         <x:f>G16-$J$4</x:f>
       </x:c>
-      <x:c r="I17" s="107" t="s"/>
-      <x:c r="J17" s="107" t="s"/>
+      <x:c r="I17" s="109" t="s"/>
+      <x:c r="J17" s="110" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A18" s="69" t="s"/>
-      <x:c r="B18" s="70" t="s"/>
+      <x:c r="A18" s="42" t="s"/>
+      <x:c r="B18" s="111" t="s"/>
       <x:c r="C18" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1707,33 +1696,32 @@
       <x:c r="J18" s="63" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="108" t="s"/>
-      <x:c r="B19" s="109" t="n">
+      <x:c r="A19" s="94" t="s"/>
+      <x:c r="B19" s="95" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C19" s="110">
+      <x:c r="C19" s="96">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D19" s="111" t="s"/>
-      <x:c r="E19" s="106" t="s">
+      <x:c r="D19" s="97" t="s"/>
+      <x:c r="E19" s="98" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F19" s="107" t="n">
+      <x:c r="F19" s="99" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="G19" s="107" t="n">
+      <x:c r="G19" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H19" s="25" t="s">
+      <x:c r="H19" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I19" s="107" t="n">
+      <x:c r="I19" s="101" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="J19" s="107" t="s"/>
+      <x:c r="J19" s="102" t="s"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="68" t="s"/>
       <x:c r="B20" s="103" t="s"/>
       <x:c r="C20" s="104">
         <x:v>32610</x:v>
@@ -1742,15 +1730,15 @@
       <x:c r="E20" s="106" t="s"/>
       <x:c r="F20" s="107" t="s"/>
       <x:c r="G20" s="107" t="s"/>
-      <x:c r="H20" s="107">
+      <x:c r="H20" s="108">
         <x:f>G19-$J$4</x:f>
       </x:c>
-      <x:c r="I20" s="107" t="s"/>
-      <x:c r="J20" s="107" t="s"/>
+      <x:c r="I20" s="109" t="s"/>
+      <x:c r="J20" s="110" t="s"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="69" t="s"/>
-      <x:c r="B21" s="70" t="s"/>
+      <x:c r="A21" s="42" t="s"/>
+      <x:c r="B21" s="111" t="s"/>
       <x:c r="C21" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1767,33 +1755,32 @@
       <x:c r="J21" s="63" t="s"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="108" t="s"/>
-      <x:c r="B22" s="109" t="n">
+      <x:c r="A22" s="94" t="s"/>
+      <x:c r="B22" s="95" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C22" s="110">
+      <x:c r="C22" s="96">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D22" s="111" t="s"/>
-      <x:c r="E22" s="106" t="s">
+      <x:c r="D22" s="97" t="s"/>
+      <x:c r="E22" s="98" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F22" s="107" t="n">
+      <x:c r="F22" s="99" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="G22" s="107" t="n">
+      <x:c r="G22" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H22" s="25" t="s">
+      <x:c r="H22" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I22" s="107" t="n">
+      <x:c r="I22" s="101" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="J22" s="107" t="s"/>
+      <x:c r="J22" s="102" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="68" t="s"/>
       <x:c r="B23" s="103" t="s"/>
       <x:c r="C23" s="104">
         <x:v>32634</x:v>
@@ -1802,15 +1789,15 @@
       <x:c r="E23" s="106" t="s"/>
       <x:c r="F23" s="107" t="s"/>
       <x:c r="G23" s="107" t="s"/>
-      <x:c r="H23" s="107">
+      <x:c r="H23" s="108">
         <x:f>G22-$J$4</x:f>
       </x:c>
-      <x:c r="I23" s="107" t="s"/>
-      <x:c r="J23" s="107" t="s"/>
+      <x:c r="I23" s="109" t="s"/>
+      <x:c r="J23" s="110" t="s"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="69" t="s"/>
-      <x:c r="B24" s="70" t="s"/>
+      <x:c r="A24" s="42" t="s"/>
+      <x:c r="B24" s="111" t="s"/>
       <x:c r="C24" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1827,33 +1814,32 @@
       <x:c r="J24" s="63" t="s"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="108" t="s"/>
-      <x:c r="B25" s="109" t="n">
+      <x:c r="A25" s="94" t="s"/>
+      <x:c r="B25" s="95" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C25" s="110">
+      <x:c r="C25" s="96">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D25" s="111" t="s"/>
-      <x:c r="E25" s="106" t="s">
+      <x:c r="D25" s="97" t="s"/>
+      <x:c r="E25" s="98" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F25" s="107" t="n">
+      <x:c r="F25" s="99" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="G25" s="107" t="n">
+      <x:c r="G25" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H25" s="25" t="s">
+      <x:c r="H25" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I25" s="107" t="n">
+      <x:c r="I25" s="101" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="J25" s="107" t="s"/>
+      <x:c r="J25" s="102" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="68" t="s"/>
       <x:c r="B26" s="103" t="s"/>
       <x:c r="C26" s="104">
         <x:v>33806</x:v>
@@ -1862,15 +1848,15 @@
       <x:c r="E26" s="106" t="s"/>
       <x:c r="F26" s="107" t="s"/>
       <x:c r="G26" s="107" t="s"/>
-      <x:c r="H26" s="107">
+      <x:c r="H26" s="108">
         <x:f>G25-$J$4</x:f>
       </x:c>
-      <x:c r="I26" s="107" t="s"/>
-      <x:c r="J26" s="107" t="s"/>
+      <x:c r="I26" s="109" t="s"/>
+      <x:c r="J26" s="110" t="s"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="69" t="s"/>
-      <x:c r="B27" s="70" t="s"/>
+      <x:c r="A27" s="42" t="s"/>
+      <x:c r="B27" s="111" t="s"/>
       <x:c r="C27" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1887,33 +1873,32 @@
       <x:c r="J27" s="63" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="108" t="s"/>
-      <x:c r="B28" s="109" t="n">
+      <x:c r="A28" s="94" t="s"/>
+      <x:c r="B28" s="95" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C28" s="110">
+      <x:c r="C28" s="96">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D28" s="111" t="s"/>
-      <x:c r="E28" s="106" t="s">
+      <x:c r="D28" s="97" t="s"/>
+      <x:c r="E28" s="98" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F28" s="107" t="n">
+      <x:c r="F28" s="99" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="G28" s="107" t="n">
+      <x:c r="G28" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H28" s="25" t="s">
+      <x:c r="H28" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I28" s="107" t="n">
+      <x:c r="I28" s="101" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="J28" s="107" t="s"/>
+      <x:c r="J28" s="102" t="s"/>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="A29" s="68" t="s"/>
       <x:c r="B29" s="103" t="s"/>
       <x:c r="C29" s="104">
         <x:v>34552</x:v>
@@ -1922,15 +1907,15 @@
       <x:c r="E29" s="106" t="s"/>
       <x:c r="F29" s="107" t="s"/>
       <x:c r="G29" s="107" t="s"/>
-      <x:c r="H29" s="107">
+      <x:c r="H29" s="108">
         <x:f>G28-$J$4</x:f>
       </x:c>
-      <x:c r="I29" s="107" t="s"/>
-      <x:c r="J29" s="107" t="s"/>
+      <x:c r="I29" s="109" t="s"/>
+      <x:c r="J29" s="110" t="s"/>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="A30" s="69" t="s"/>
-      <x:c r="B30" s="70" t="s"/>
+      <x:c r="A30" s="42" t="s"/>
+      <x:c r="B30" s="111" t="s"/>
       <x:c r="C30" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1947,33 +1932,32 @@
       <x:c r="J30" s="63" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="108" t="s"/>
-      <x:c r="B31" s="109" t="n">
+      <x:c r="A31" s="94" t="s"/>
+      <x:c r="B31" s="95" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C31" s="110">
+      <x:c r="C31" s="96">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D31" s="111" t="s"/>
-      <x:c r="E31" s="106" t="s">
+      <x:c r="D31" s="97" t="s"/>
+      <x:c r="E31" s="98" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F31" s="107" t="n">
+      <x:c r="F31" s="99" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="G31" s="107" t="n">
+      <x:c r="G31" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H31" s="25" t="s">
+      <x:c r="H31" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I31" s="107" t="n">
+      <x:c r="I31" s="101" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="J31" s="107" t="s"/>
+      <x:c r="J31" s="102" t="s"/>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="A32" s="68" t="s"/>
       <x:c r="B32" s="103" t="s"/>
       <x:c r="C32" s="104">
         <x:v>34683</x:v>
@@ -1982,15 +1966,15 @@
       <x:c r="E32" s="106" t="s"/>
       <x:c r="F32" s="107" t="s"/>
       <x:c r="G32" s="107" t="s"/>
-      <x:c r="H32" s="107">
+      <x:c r="H32" s="108">
         <x:f>G31-$J$4</x:f>
       </x:c>
-      <x:c r="I32" s="107" t="s"/>
-      <x:c r="J32" s="107" t="s"/>
+      <x:c r="I32" s="109" t="s"/>
+      <x:c r="J32" s="110" t="s"/>
     </x:row>
     <x:row r="33" spans="1:10">
-      <x:c r="A33" s="69" t="s"/>
-      <x:c r="B33" s="70" t="s"/>
+      <x:c r="A33" s="42" t="s"/>
+      <x:c r="B33" s="111" t="s"/>
       <x:c r="C33" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2007,33 +1991,32 @@
       <x:c r="J33" s="63" t="s"/>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="A34" s="108" t="s"/>
-      <x:c r="B34" s="109" t="n">
+      <x:c r="A34" s="94" t="s"/>
+      <x:c r="B34" s="95" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C34" s="110">
+      <x:c r="C34" s="96">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D34" s="111" t="s"/>
-      <x:c r="E34" s="106" t="s">
+      <x:c r="D34" s="97" t="s"/>
+      <x:c r="E34" s="98" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F34" s="107" t="n">
+      <x:c r="F34" s="99" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="G34" s="107" t="n">
+      <x:c r="G34" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H34" s="25" t="s">
+      <x:c r="H34" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I34" s="107" t="n">
+      <x:c r="I34" s="101" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="J34" s="107" t="s"/>
+      <x:c r="J34" s="102" t="s"/>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="A35" s="68" t="s"/>
       <x:c r="B35" s="103" t="s"/>
       <x:c r="C35" s="104">
         <x:v>34694</x:v>
@@ -2042,15 +2025,15 @@
       <x:c r="E35" s="106" t="s"/>
       <x:c r="F35" s="107" t="s"/>
       <x:c r="G35" s="107" t="s"/>
-      <x:c r="H35" s="107">
+      <x:c r="H35" s="108">
         <x:f>G34-$J$4</x:f>
       </x:c>
-      <x:c r="I35" s="107" t="s"/>
-      <x:c r="J35" s="107" t="s"/>
+      <x:c r="I35" s="109" t="s"/>
+      <x:c r="J35" s="110" t="s"/>
     </x:row>
     <x:row r="36" spans="1:10">
-      <x:c r="A36" s="69" t="s"/>
-      <x:c r="B36" s="70" t="s"/>
+      <x:c r="A36" s="42" t="s"/>
+      <x:c r="B36" s="111" t="s"/>
       <x:c r="C36" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2067,33 +2050,32 @@
       <x:c r="J36" s="63" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="108" t="s"/>
-      <x:c r="B37" s="109" t="n">
+      <x:c r="A37" s="94" t="s"/>
+      <x:c r="B37" s="95" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C37" s="110">
+      <x:c r="C37" s="96">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D37" s="111" t="s"/>
-      <x:c r="E37" s="106" t="s">
+      <x:c r="D37" s="97" t="s"/>
+      <x:c r="E37" s="98" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F37" s="107" t="n">
+      <x:c r="F37" s="99" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="G37" s="107" t="n">
+      <x:c r="G37" s="99" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H37" s="25" t="s">
+      <x:c r="H37" s="100" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I37" s="107" t="n">
+      <x:c r="I37" s="101" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="J37" s="107" t="s"/>
+      <x:c r="J37" s="102" t="s"/>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="A38" s="68" t="s"/>
       <x:c r="B38" s="103" t="s"/>
       <x:c r="C38" s="104">
         <x:v>34719</x:v>
@@ -2102,15 +2084,15 @@
       <x:c r="E38" s="106" t="s"/>
       <x:c r="F38" s="107" t="s"/>
       <x:c r="G38" s="107" t="s"/>
-      <x:c r="H38" s="107">
+      <x:c r="H38" s="108">
         <x:f>G37-$J$4</x:f>
       </x:c>
-      <x:c r="I38" s="107" t="s"/>
-      <x:c r="J38" s="107" t="s"/>
+      <x:c r="I38" s="109" t="s"/>
+      <x:c r="J38" s="110" t="s"/>
     </x:row>
     <x:row r="39" spans="1:10">
-      <x:c r="A39" s="69" t="s"/>
-      <x:c r="B39" s="70" t="s"/>
+      <x:c r="A39" s="42" t="s"/>
+      <x:c r="B39" s="111" t="s"/>
       <x:c r="C39" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2127,105 +2109,101 @@
       <x:c r="J39" s="63" t="s"/>
     </x:row>
     <x:row r="40" spans="1:10">
-      <x:c r="A40" s="68" t="s"/>
-      <x:c r="B40" s="74" t="s">
+      <x:c r="B40" s="71" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="F40" s="74" t="s">
+      <x:c r="F40" s="71" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="I40" s="74" t="s">
+      <x:c r="I40" s="71" t="s">
         <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="A41" s="68" t="s"/>
-      <x:c r="B41" s="115" t="s">
+      <x:c r="B41" s="112" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C41" s="81" t="s"/>
-      <x:c r="D41" s="88" t="s"/>
-      <x:c r="E41" s="68" t="s"/>
-      <x:c r="F41" s="115" t="s">
+      <x:c r="C41" s="15" t="s"/>
+      <x:c r="D41" s="76" t="s"/>
+      <x:c r="F41" s="112" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G41" s="114" t="s"/>
-      <x:c r="H41" s="68" t="s"/>
-      <x:c r="I41" s="113" t="s">
+      <x:c r="G41" s="113" t="s"/>
+      <x:c r="I41" s="114" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="J41" s="112" t="s"/>
+      <x:c r="J41" s="115" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="59">
-    <x:mergeCell ref="I11:J12"/>
     <x:mergeCell ref="B11:B12"/>
     <x:mergeCell ref="E11:E12"/>
+    <x:mergeCell ref="F11:F12"/>
     <x:mergeCell ref="G11:H12"/>
-    <x:mergeCell ref="F11:F12"/>
-    <x:mergeCell ref="I13:J14"/>
-    <x:mergeCell ref="G13:G14"/>
-    <x:mergeCell ref="F13:F14"/>
+    <x:mergeCell ref="I11:J12"/>
     <x:mergeCell ref="B13:B15"/>
     <x:mergeCell ref="E13:E14"/>
+    <x:mergeCell ref="F13:F14"/>
+    <x:mergeCell ref="G13:G14"/>
+    <x:mergeCell ref="I13:J14"/>
     <x:mergeCell ref="E15:J15"/>
-    <x:mergeCell ref="I16:J17"/>
-    <x:mergeCell ref="G16:G17"/>
-    <x:mergeCell ref="F16:F17"/>
     <x:mergeCell ref="B16:B18"/>
     <x:mergeCell ref="E16:E17"/>
+    <x:mergeCell ref="F16:F17"/>
+    <x:mergeCell ref="G16:G17"/>
+    <x:mergeCell ref="I16:J17"/>
     <x:mergeCell ref="E18:J18"/>
-    <x:mergeCell ref="I19:J20"/>
-    <x:mergeCell ref="G19:G20"/>
-    <x:mergeCell ref="F19:F20"/>
     <x:mergeCell ref="B19:B21"/>
     <x:mergeCell ref="E19:E20"/>
+    <x:mergeCell ref="F19:F20"/>
+    <x:mergeCell ref="G19:G20"/>
+    <x:mergeCell ref="I19:J20"/>
     <x:mergeCell ref="E21:J21"/>
-    <x:mergeCell ref="I22:J23"/>
-    <x:mergeCell ref="G22:G23"/>
-    <x:mergeCell ref="F22:F23"/>
     <x:mergeCell ref="B22:B24"/>
     <x:mergeCell ref="E22:E23"/>
+    <x:mergeCell ref="F22:F23"/>
+    <x:mergeCell ref="G22:G23"/>
+    <x:mergeCell ref="I22:J23"/>
     <x:mergeCell ref="E24:J24"/>
-    <x:mergeCell ref="I25:J26"/>
-    <x:mergeCell ref="G25:G26"/>
-    <x:mergeCell ref="F25:F26"/>
     <x:mergeCell ref="B25:B27"/>
     <x:mergeCell ref="E25:E26"/>
+    <x:mergeCell ref="F25:F26"/>
+    <x:mergeCell ref="G25:G26"/>
+    <x:mergeCell ref="I25:J26"/>
     <x:mergeCell ref="E27:J27"/>
-    <x:mergeCell ref="I28:J29"/>
-    <x:mergeCell ref="G28:G29"/>
-    <x:mergeCell ref="F28:F29"/>
     <x:mergeCell ref="B28:B30"/>
     <x:mergeCell ref="E28:E29"/>
+    <x:mergeCell ref="F28:F29"/>
+    <x:mergeCell ref="G28:G29"/>
+    <x:mergeCell ref="I28:J29"/>
     <x:mergeCell ref="E30:J30"/>
-    <x:mergeCell ref="I31:J32"/>
-    <x:mergeCell ref="G31:G32"/>
-    <x:mergeCell ref="F31:F32"/>
     <x:mergeCell ref="B31:B33"/>
     <x:mergeCell ref="E31:E32"/>
+    <x:mergeCell ref="F31:F32"/>
+    <x:mergeCell ref="G31:G32"/>
+    <x:mergeCell ref="I31:J32"/>
     <x:mergeCell ref="E33:J33"/>
-    <x:mergeCell ref="I34:J35"/>
-    <x:mergeCell ref="G34:G35"/>
-    <x:mergeCell ref="F34:F35"/>
     <x:mergeCell ref="B34:B36"/>
     <x:mergeCell ref="E34:E35"/>
+    <x:mergeCell ref="F34:F35"/>
+    <x:mergeCell ref="G34:G35"/>
+    <x:mergeCell ref="I34:J35"/>
     <x:mergeCell ref="E36:J36"/>
-    <x:mergeCell ref="I37:J38"/>
-    <x:mergeCell ref="G37:G38"/>
-    <x:mergeCell ref="F37:F38"/>
     <x:mergeCell ref="B37:B39"/>
     <x:mergeCell ref="E37:E38"/>
+    <x:mergeCell ref="F37:F38"/>
+    <x:mergeCell ref="G37:G38"/>
+    <x:mergeCell ref="I37:J38"/>
     <x:mergeCell ref="E39:J39"/>
   </x:mergeCells>
   <x:phoneticPr fontId="0" type="noConversion"/>
-  <x:conditionalFormatting sqref="H14:H39">
-    <x:cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="lessThan">
+  <x:conditionalFormatting sqref="H14:H14 H17:H17 H20:H20 H23:H23 H26:H26 H29:H29 H32:H32 H35:H35 H38:H38">
+    <x:cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="lessThan">
       <x:formula>0</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>
   <x:conditionalFormatting sqref="E13:E39">
-    <x:cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <x:cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
       <x:formula>$E13="Visa"</x:formula>
     </x:cfRule>
   </x:conditionalFormatting>

--- a/tests/Gauges/tLists4_complexRange.xlsx
+++ b/tests/Gauges/tLists4_complexRange.xlsx
@@ -12,15 +12,15 @@
   <x:definedNames>
     <x:definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!11:12</x:definedName>
     <x:definedName name="Orders">Sheet1!$A$13:$J$39</x:definedName>
-    <x:definedName name="OrdersRange">Sheet1!$A$13:$J$16</x:definedName>
-    <x:definedName name="Orders_tpl">Sheet1!$A$13:$J$16</x:definedName>
+    <x:definedName name="OrdersRange">Sheet1!$A$13:$J$39</x:definedName>
+    <x:definedName name="Orders_tpl">Sheet1!$A$13:$J$39</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <x:si>
     <x:t>Complex range</x:t>
   </x:si>
@@ -56,6 +56,9 @@
   </x:si>
   <x:si>
     <x:t>US Virgin Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>00820</x:t>
   </x:si>
   <x:si>
     <x:t>Order No</x:t>
@@ -1528,8 +1531,8 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="H9" s="89" t="s"/>
-      <x:c r="I9" s="90" t="n">
-        <x:v>820</x:v>
+      <x:c r="I9" s="90" t="s">
+        <x:v>12</x:v>
       </x:c>
       <x:c r="J9" s="89" t="s"/>
     </x:row>
@@ -1548,24 +1551,24 @@
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="68" t="s"/>
       <x:c r="B11" s="92" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="93" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="94" t="s"/>
       <x:c r="E11" s="95" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F11" s="96" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="G11" s="97" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="98" t="s"/>
       <x:c r="I11" s="96" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="J11" s="96" t="s"/>
     </x:row>
@@ -1574,7 +1577,7 @@
       <x:c r="B12" s="92" t="s"/>
       <x:c r="C12" s="99" t="s"/>
       <x:c r="D12" s="100" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E12" s="95" t="s"/>
       <x:c r="F12" s="96" t="s"/>
@@ -1593,7 +1596,7 @@
       </x:c>
       <x:c r="D13" s="111" t="s"/>
       <x:c r="E13" s="106" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="107" t="n">
         <x:v>4807</x:v>
@@ -1602,7 +1605,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H13" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I13" s="107" t="n">
         <x:v>4807</x:v>
@@ -1629,7 +1632,7 @@
       <x:c r="A15" s="69" t="s"/>
       <x:c r="B15" s="70" t="s"/>
       <x:c r="C15" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="30" t="n">
         <x:v>4</x:v>
@@ -1653,7 +1656,7 @@
       </x:c>
       <x:c r="D16" s="111" t="s"/>
       <x:c r="E16" s="106" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F16" s="107" t="n">
         <x:v>2150</x:v>
@@ -1662,7 +1665,7 @@
         <x:v>8.5</x:v>
       </x:c>
       <x:c r="H16" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I16" s="107" t="n">
         <x:v>2150</x:v>
@@ -1689,7 +1692,7 @@
       <x:c r="A18" s="69" t="s"/>
       <x:c r="B18" s="70" t="s"/>
       <x:c r="C18" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D18" s="30" t="n">
         <x:v>4</x:v>
@@ -1713,7 +1716,7 @@
       </x:c>
       <x:c r="D19" s="111" t="s"/>
       <x:c r="E19" s="106" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="F19" s="107" t="n">
         <x:v>3596</x:v>
@@ -1722,7 +1725,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H19" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I19" s="107" t="n">
         <x:v>3596</x:v>
@@ -1749,7 +1752,7 @@
       <x:c r="A21" s="69" t="s"/>
       <x:c r="B21" s="70" t="s"/>
       <x:c r="C21" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="30" t="n">
         <x:v>4</x:v>
@@ -1773,7 +1776,7 @@
       </x:c>
       <x:c r="D22" s="111" t="s"/>
       <x:c r="E22" s="106" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F22" s="107" t="n">
         <x:v>9634</x:v>
@@ -1782,7 +1785,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H22" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I22" s="107" t="n">
         <x:v>9634</x:v>
@@ -1809,7 +1812,7 @@
       <x:c r="A24" s="69" t="s"/>
       <x:c r="B24" s="70" t="s"/>
       <x:c r="C24" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D24" s="30" t="n">
         <x:v>4</x:v>
@@ -1833,7 +1836,7 @@
       </x:c>
       <x:c r="D25" s="111" t="s"/>
       <x:c r="E25" s="106" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F25" s="107" t="n">
         <x:v>31219.95</x:v>
@@ -1842,7 +1845,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H25" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I25" s="107" t="n">
         <x:v>31219.95</x:v>
@@ -1869,7 +1872,7 @@
       <x:c r="A27" s="69" t="s"/>
       <x:c r="B27" s="70" t="s"/>
       <x:c r="C27" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D27" s="30" t="n">
         <x:v>4</x:v>
@@ -1893,7 +1896,7 @@
       </x:c>
       <x:c r="D28" s="111" t="s"/>
       <x:c r="E28" s="106" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F28" s="107" t="n">
         <x:v>3640</x:v>
@@ -1902,7 +1905,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H28" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I28" s="107" t="n">
         <x:v>3640</x:v>
@@ -1929,7 +1932,7 @@
       <x:c r="A30" s="69" t="s"/>
       <x:c r="B30" s="70" t="s"/>
       <x:c r="C30" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D30" s="30" t="n">
         <x:v>4</x:v>
@@ -1953,7 +1956,7 @@
       </x:c>
       <x:c r="D31" s="111" t="s"/>
       <x:c r="E31" s="106" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F31" s="107" t="n">
         <x:v>6935</x:v>
@@ -1962,7 +1965,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H31" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I31" s="107" t="n">
         <x:v>6935</x:v>
@@ -1989,7 +1992,7 @@
       <x:c r="A33" s="69" t="s"/>
       <x:c r="B33" s="70" t="s"/>
       <x:c r="C33" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D33" s="30" t="n">
         <x:v>4</x:v>
@@ -2013,7 +2016,7 @@
       </x:c>
       <x:c r="D34" s="111" t="s"/>
       <x:c r="E34" s="106" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F34" s="107" t="n">
         <x:v>4317.75</x:v>
@@ -2022,7 +2025,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H34" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I34" s="107" t="n">
         <x:v>4317.75</x:v>
@@ -2049,7 +2052,7 @@
       <x:c r="A36" s="69" t="s"/>
       <x:c r="B36" s="70" t="s"/>
       <x:c r="C36" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D36" s="30" t="n">
         <x:v>4</x:v>
@@ -2073,7 +2076,7 @@
       </x:c>
       <x:c r="D37" s="111" t="s"/>
       <x:c r="E37" s="106" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F37" s="107" t="n">
         <x:v>3065</x:v>
@@ -2082,7 +2085,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="H37" s="25" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I37" s="107" t="n">
         <x:v>3065</x:v>
@@ -2109,7 +2112,7 @@
       <x:c r="A39" s="69" t="s"/>
       <x:c r="B39" s="70" t="s"/>
       <x:c r="C39" s="29" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D39" s="30" t="n">
         <x:v>4</x:v>
@@ -2126,30 +2129,30 @@
     <x:row r="40" spans="1:10">
       <x:c r="A40" s="68" t="s"/>
       <x:c r="B40" s="74" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F40" s="74" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I40" s="74" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
       <x:c r="A41" s="68" t="s"/>
       <x:c r="B41" s="115" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C41" s="81" t="s"/>
       <x:c r="D41" s="88" t="s"/>
       <x:c r="E41" s="68" t="s"/>
       <x:c r="F41" s="115" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G41" s="114" t="s"/>
       <x:c r="H41" s="68" t="s"/>
       <x:c r="I41" s="113" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J41" s="112" t="s"/>
     </x:row>

--- a/tests/Gauges/tLists4_complexRange.xlsx
+++ b/tests/Gauges/tLists4_complexRange.xlsx
@@ -423,7 +423,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="47">
+  <x:cellStyleXfs count="38">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -473,7 +473,7 @@
     <x:xf numFmtId="2" fontId="9" fillId="0" borderId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -482,21 +482,18 @@
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -509,39 +506,15 @@
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="7" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="4" fontId="5" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="5" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="11" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="12" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -564,7 +537,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="116">
+  <x:cellXfs count="104">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +752,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -791,11 +764,11 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -807,14 +780,6 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -823,14 +788,6 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -839,10 +796,6 @@
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -859,11 +812,11 @@
       <x:alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -871,14 +824,6 @@
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -888,26 +833,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1024,11 +949,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1895475" cy="609600"/>
+    <xdr:ext cx="1897380" cy="609600"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="1" name="Рисунок 2"/>
@@ -1045,7 +970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1895475" cy="609600"/>
+          <a:ext cx="1897380" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect"/>
       </xdr:spPr>
@@ -1478,7 +1403,7 @@
       </x:c>
     </x:row>
     <x:row r="6" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="B6" s="46" t="s">
+      <x:c r="B6" s="46">
         <x:f>"632-1 Third Frydenhoj"&amp;" "&amp;""</x:f>
       </x:c>
       <x:c r="C6" s="15" t="s"/>
@@ -1559,75 +1484,75 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="H11" s="84" t="s"/>
-      <x:c r="I11" s="85" t="s">
+      <x:c r="I11" s="82" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="J11" s="81" t="s"/>
+      <x:c r="J11" s="82" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="B12" s="86" t="s"/>
-      <x:c r="C12" s="87" t="s"/>
-      <x:c r="D12" s="88" t="s">
+      <x:c r="B12" s="78" t="s"/>
+      <x:c r="C12" s="85" t="s"/>
+      <x:c r="D12" s="86" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="E12" s="89" t="s"/>
-      <x:c r="F12" s="90" t="s"/>
-      <x:c r="G12" s="91" t="s"/>
-      <x:c r="H12" s="92" t="s"/>
-      <x:c r="I12" s="93" t="s"/>
-      <x:c r="J12" s="89" t="s"/>
+      <x:c r="E12" s="81" t="s"/>
+      <x:c r="F12" s="82" t="s"/>
+      <x:c r="G12" s="87" t="s"/>
+      <x:c r="H12" s="88" t="s"/>
+      <x:c r="I12" s="82" t="s"/>
+      <x:c r="J12" s="82" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10" customFormat="1" ht="15" customHeight="1">
-      <x:c r="A13" s="94" t="s"/>
-      <x:c r="B13" s="95" t="n">
+      <x:c r="A13" s="89" t="s"/>
+      <x:c r="B13" s="90" t="n">
         <x:v>1005</x:v>
       </x:c>
-      <x:c r="C13" s="96">
+      <x:c r="C13" s="91">
         <x:v>32253</x:v>
       </x:c>
-      <x:c r="D13" s="97" t="s"/>
-      <x:c r="E13" s="98" t="s">
+      <x:c r="D13" s="92" t="s"/>
+      <x:c r="E13" s="93" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F13" s="99" t="n">
+      <x:c r="F13" s="94" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="G13" s="99" t="n">
+      <x:c r="G13" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H13" s="100" t="s">
+      <x:c r="H13" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I13" s="101" t="n">
+      <x:c r="I13" s="94" t="n">
         <x:v>4807</x:v>
       </x:c>
-      <x:c r="J13" s="102" t="s"/>
+      <x:c r="J13" s="94" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="B14" s="103" t="s"/>
-      <x:c r="C14" s="104">
+      <x:c r="B14" s="96" t="s"/>
+      <x:c r="C14" s="97">
         <x:v>32163</x:v>
       </x:c>
-      <x:c r="D14" s="105" t="s"/>
-      <x:c r="E14" s="106" t="s"/>
-      <x:c r="F14" s="107" t="s"/>
-      <x:c r="G14" s="107" t="s"/>
-      <x:c r="H14" s="108" t="e">
+      <x:c r="D14" s="98" t="s"/>
+      <x:c r="E14" s="93" t="s"/>
+      <x:c r="F14" s="94" t="s"/>
+      <x:c r="G14" s="94" t="s"/>
+      <x:c r="H14" s="94">
         <x:f>G13-$J$4</x:f>
       </x:c>
-      <x:c r="I14" s="109" t="s"/>
-      <x:c r="J14" s="110" t="s"/>
+      <x:c r="I14" s="94" t="s"/>
+      <x:c r="J14" s="94" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10" s="42" customFormat="1" ht="9.95" customHeight="1">
       <x:c r="A15" s="42" t="s"/>
-      <x:c r="B15" s="111" t="s"/>
+      <x:c r="B15" s="99" t="s"/>
       <x:c r="C15" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="30" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E15" s="61" t="s">
+      <x:c r="E15" s="61">
         <x:f>""&amp;" "&amp;""</x:f>
       </x:c>
       <x:c r="F15" s="62" t="s"/>
@@ -1637,49 +1562,49 @@
       <x:c r="J15" s="63" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10" customFormat="1" ht="12" customHeight="1">
-      <x:c r="A16" s="94" t="s"/>
-      <x:c r="B16" s="95" t="n">
+      <x:c r="A16" s="89" t="s"/>
+      <x:c r="B16" s="90" t="n">
         <x:v>1059</x:v>
       </x:c>
-      <x:c r="C16" s="96">
+      <x:c r="C16" s="91">
         <x:v>32563</x:v>
       </x:c>
-      <x:c r="D16" s="97" t="s"/>
-      <x:c r="E16" s="98" t="s">
+      <x:c r="D16" s="92" t="s"/>
+      <x:c r="E16" s="93" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F16" s="99" t="n">
+      <x:c r="F16" s="94" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="G16" s="99" t="n">
+      <x:c r="G16" s="94" t="n">
         <x:v>8.5</x:v>
       </x:c>
-      <x:c r="H16" s="100" t="s">
+      <x:c r="H16" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I16" s="101" t="n">
+      <x:c r="I16" s="94" t="n">
         <x:v>2150</x:v>
       </x:c>
-      <x:c r="J16" s="102" t="s"/>
+      <x:c r="J16" s="94" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="B17" s="103" t="s"/>
-      <x:c r="C17" s="104">
+      <x:c r="B17" s="96" t="s"/>
+      <x:c r="C17" s="97">
         <x:v>32564</x:v>
       </x:c>
-      <x:c r="D17" s="105" t="s"/>
-      <x:c r="E17" s="106" t="s"/>
-      <x:c r="F17" s="107" t="s"/>
-      <x:c r="G17" s="107" t="s"/>
-      <x:c r="H17" s="108">
+      <x:c r="D17" s="98" t="s"/>
+      <x:c r="E17" s="93" t="s"/>
+      <x:c r="F17" s="94" t="s"/>
+      <x:c r="G17" s="94" t="s"/>
+      <x:c r="H17" s="94">
         <x:f>G16-$J$4</x:f>
       </x:c>
-      <x:c r="I17" s="109" t="s"/>
-      <x:c r="J17" s="110" t="s"/>
+      <x:c r="I17" s="94" t="s"/>
+      <x:c r="J17" s="94" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10" customFormat="1" ht="12" customHeight="1">
       <x:c r="A18" s="42" t="s"/>
-      <x:c r="B18" s="111" t="s"/>
+      <x:c r="B18" s="99" t="s"/>
       <x:c r="C18" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1696,49 +1621,49 @@
       <x:c r="J18" s="63" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="94" t="s"/>
-      <x:c r="B19" s="95" t="n">
+      <x:c r="A19" s="89" t="s"/>
+      <x:c r="B19" s="90" t="n">
         <x:v>1072</x:v>
       </x:c>
-      <x:c r="C19" s="96">
+      <x:c r="C19" s="91">
         <x:v>32609</x:v>
       </x:c>
-      <x:c r="D19" s="97" t="s"/>
-      <x:c r="E19" s="98" t="s">
+      <x:c r="D19" s="92" t="s"/>
+      <x:c r="E19" s="93" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="F19" s="99" t="n">
+      <x:c r="F19" s="94" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="G19" s="99" t="n">
+      <x:c r="G19" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H19" s="100" t="s">
+      <x:c r="H19" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I19" s="101" t="n">
+      <x:c r="I19" s="94" t="n">
         <x:v>3596</x:v>
       </x:c>
-      <x:c r="J19" s="102" t="s"/>
+      <x:c r="J19" s="94" t="s"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="B20" s="103" t="s"/>
-      <x:c r="C20" s="104">
+      <x:c r="B20" s="96" t="s"/>
+      <x:c r="C20" s="97">
         <x:v>32610</x:v>
       </x:c>
-      <x:c r="D20" s="105" t="s"/>
-      <x:c r="E20" s="106" t="s"/>
-      <x:c r="F20" s="107" t="s"/>
-      <x:c r="G20" s="107" t="s"/>
-      <x:c r="H20" s="108">
+      <x:c r="D20" s="98" t="s"/>
+      <x:c r="E20" s="93" t="s"/>
+      <x:c r="F20" s="94" t="s"/>
+      <x:c r="G20" s="94" t="s"/>
+      <x:c r="H20" s="94">
         <x:f>G19-$J$4</x:f>
       </x:c>
-      <x:c r="I20" s="109" t="s"/>
-      <x:c r="J20" s="110" t="s"/>
+      <x:c r="I20" s="94" t="s"/>
+      <x:c r="J20" s="94" t="s"/>
     </x:row>
     <x:row r="21" spans="1:10">
       <x:c r="A21" s="42" t="s"/>
-      <x:c r="B21" s="111" t="s"/>
+      <x:c r="B21" s="99" t="s"/>
       <x:c r="C21" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1755,49 +1680,49 @@
       <x:c r="J21" s="63" t="s"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="94" t="s"/>
-      <x:c r="B22" s="95" t="n">
+      <x:c r="A22" s="89" t="s"/>
+      <x:c r="B22" s="90" t="n">
         <x:v>1080</x:v>
       </x:c>
-      <x:c r="C22" s="96">
+      <x:c r="C22" s="91">
         <x:v>32633</x:v>
       </x:c>
-      <x:c r="D22" s="97" t="s"/>
-      <x:c r="E22" s="98" t="s">
+      <x:c r="D22" s="92" t="s"/>
+      <x:c r="E22" s="93" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F22" s="99" t="n">
+      <x:c r="F22" s="94" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="G22" s="99" t="n">
+      <x:c r="G22" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H22" s="100" t="s">
+      <x:c r="H22" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I22" s="101" t="n">
+      <x:c r="I22" s="94" t="n">
         <x:v>9634</x:v>
       </x:c>
-      <x:c r="J22" s="102" t="s"/>
+      <x:c r="J22" s="94" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="B23" s="103" t="s"/>
-      <x:c r="C23" s="104">
+      <x:c r="B23" s="96" t="s"/>
+      <x:c r="C23" s="97">
         <x:v>32634</x:v>
       </x:c>
-      <x:c r="D23" s="105" t="s"/>
-      <x:c r="E23" s="106" t="s"/>
-      <x:c r="F23" s="107" t="s"/>
-      <x:c r="G23" s="107" t="s"/>
-      <x:c r="H23" s="108">
+      <x:c r="D23" s="98" t="s"/>
+      <x:c r="E23" s="93" t="s"/>
+      <x:c r="F23" s="94" t="s"/>
+      <x:c r="G23" s="94" t="s"/>
+      <x:c r="H23" s="94">
         <x:f>G22-$J$4</x:f>
       </x:c>
-      <x:c r="I23" s="109" t="s"/>
-      <x:c r="J23" s="110" t="s"/>
+      <x:c r="I23" s="94" t="s"/>
+      <x:c r="J23" s="94" t="s"/>
     </x:row>
     <x:row r="24" spans="1:10">
       <x:c r="A24" s="42" t="s"/>
-      <x:c r="B24" s="111" t="s"/>
+      <x:c r="B24" s="99" t="s"/>
       <x:c r="C24" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1814,49 +1739,49 @@
       <x:c r="J24" s="63" t="s"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="94" t="s"/>
-      <x:c r="B25" s="95" t="n">
+      <x:c r="A25" s="89" t="s"/>
+      <x:c r="B25" s="90" t="n">
         <x:v>1105</x:v>
       </x:c>
-      <x:c r="C25" s="96">
+      <x:c r="C25" s="91">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D25" s="97" t="s"/>
-      <x:c r="E25" s="98" t="s">
+      <x:c r="D25" s="92" t="s"/>
+      <x:c r="E25" s="93" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F25" s="99" t="n">
+      <x:c r="F25" s="94" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="G25" s="99" t="n">
+      <x:c r="G25" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H25" s="100" t="s">
+      <x:c r="H25" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I25" s="101" t="n">
+      <x:c r="I25" s="94" t="n">
         <x:v>31219.95</x:v>
       </x:c>
-      <x:c r="J25" s="102" t="s"/>
+      <x:c r="J25" s="94" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="B26" s="103" t="s"/>
-      <x:c r="C26" s="104">
+      <x:c r="B26" s="96" t="s"/>
+      <x:c r="C26" s="97">
         <x:v>33806</x:v>
       </x:c>
-      <x:c r="D26" s="105" t="s"/>
-      <x:c r="E26" s="106" t="s"/>
-      <x:c r="F26" s="107" t="s"/>
-      <x:c r="G26" s="107" t="s"/>
-      <x:c r="H26" s="108">
+      <x:c r="D26" s="98" t="s"/>
+      <x:c r="E26" s="93" t="s"/>
+      <x:c r="F26" s="94" t="s"/>
+      <x:c r="G26" s="94" t="s"/>
+      <x:c r="H26" s="94">
         <x:f>G25-$J$4</x:f>
       </x:c>
-      <x:c r="I26" s="109" t="s"/>
-      <x:c r="J26" s="110" t="s"/>
+      <x:c r="I26" s="94" t="s"/>
+      <x:c r="J26" s="94" t="s"/>
     </x:row>
     <x:row r="27" spans="1:10">
       <x:c r="A27" s="42" t="s"/>
-      <x:c r="B27" s="111" t="s"/>
+      <x:c r="B27" s="99" t="s"/>
       <x:c r="C27" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1873,49 +1798,49 @@
       <x:c r="J27" s="63" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="A28" s="94" t="s"/>
-      <x:c r="B28" s="95" t="n">
+      <x:c r="A28" s="89" t="s"/>
+      <x:c r="B28" s="90" t="n">
         <x:v>1180</x:v>
       </x:c>
-      <x:c r="C28" s="96">
+      <x:c r="C28" s="91">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D28" s="97" t="s"/>
-      <x:c r="E28" s="98" t="s">
+      <x:c r="D28" s="92" t="s"/>
+      <x:c r="E28" s="93" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F28" s="99" t="n">
+      <x:c r="F28" s="94" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="G28" s="99" t="n">
+      <x:c r="G28" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H28" s="100" t="s">
+      <x:c r="H28" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I28" s="101" t="n">
+      <x:c r="I28" s="94" t="n">
         <x:v>3640</x:v>
       </x:c>
-      <x:c r="J28" s="102" t="s"/>
+      <x:c r="J28" s="94" t="s"/>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="B29" s="103" t="s"/>
-      <x:c r="C29" s="104">
+      <x:c r="B29" s="96" t="s"/>
+      <x:c r="C29" s="97">
         <x:v>34552</x:v>
       </x:c>
-      <x:c r="D29" s="105" t="s"/>
-      <x:c r="E29" s="106" t="s"/>
-      <x:c r="F29" s="107" t="s"/>
-      <x:c r="G29" s="107" t="s"/>
-      <x:c r="H29" s="108">
+      <x:c r="D29" s="98" t="s"/>
+      <x:c r="E29" s="93" t="s"/>
+      <x:c r="F29" s="94" t="s"/>
+      <x:c r="G29" s="94" t="s"/>
+      <x:c r="H29" s="94">
         <x:f>G28-$J$4</x:f>
       </x:c>
-      <x:c r="I29" s="109" t="s"/>
-      <x:c r="J29" s="110" t="s"/>
+      <x:c r="I29" s="94" t="s"/>
+      <x:c r="J29" s="94" t="s"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="42" t="s"/>
-      <x:c r="B30" s="111" t="s"/>
+      <x:c r="B30" s="99" t="s"/>
       <x:c r="C30" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1932,49 +1857,49 @@
       <x:c r="J30" s="63" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="A31" s="94" t="s"/>
-      <x:c r="B31" s="95" t="n">
+      <x:c r="A31" s="89" t="s"/>
+      <x:c r="B31" s="90" t="n">
         <x:v>1266</x:v>
       </x:c>
-      <x:c r="C31" s="96">
+      <x:c r="C31" s="91">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D31" s="97" t="s"/>
-      <x:c r="E31" s="98" t="s">
+      <x:c r="D31" s="92" t="s"/>
+      <x:c r="E31" s="93" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F31" s="99" t="n">
+      <x:c r="F31" s="94" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="G31" s="99" t="n">
+      <x:c r="G31" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H31" s="100" t="s">
+      <x:c r="H31" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I31" s="101" t="n">
+      <x:c r="I31" s="94" t="n">
         <x:v>6935</x:v>
       </x:c>
-      <x:c r="J31" s="102" t="s"/>
+      <x:c r="J31" s="94" t="s"/>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="B32" s="103" t="s"/>
-      <x:c r="C32" s="104">
+      <x:c r="B32" s="96" t="s"/>
+      <x:c r="C32" s="97">
         <x:v>34683</x:v>
       </x:c>
-      <x:c r="D32" s="105" t="s"/>
-      <x:c r="E32" s="106" t="s"/>
-      <x:c r="F32" s="107" t="s"/>
-      <x:c r="G32" s="107" t="s"/>
-      <x:c r="H32" s="108">
+      <x:c r="D32" s="98" t="s"/>
+      <x:c r="E32" s="93" t="s"/>
+      <x:c r="F32" s="94" t="s"/>
+      <x:c r="G32" s="94" t="s"/>
+      <x:c r="H32" s="94">
         <x:f>G31-$J$4</x:f>
       </x:c>
-      <x:c r="I32" s="109" t="s"/>
-      <x:c r="J32" s="110" t="s"/>
+      <x:c r="I32" s="94" t="s"/>
+      <x:c r="J32" s="94" t="s"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="42" t="s"/>
-      <x:c r="B33" s="111" t="s"/>
+      <x:c r="B33" s="99" t="s"/>
       <x:c r="C33" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -1991,49 +1916,49 @@
       <x:c r="J33" s="63" t="s"/>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="A34" s="94" t="s"/>
-      <x:c r="B34" s="95" t="n">
+      <x:c r="A34" s="89" t="s"/>
+      <x:c r="B34" s="90" t="n">
         <x:v>1280</x:v>
       </x:c>
-      <x:c r="C34" s="96">
+      <x:c r="C34" s="91">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D34" s="97" t="s"/>
-      <x:c r="E34" s="98" t="s">
+      <x:c r="D34" s="92" t="s"/>
+      <x:c r="E34" s="93" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F34" s="99" t="n">
+      <x:c r="F34" s="94" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="G34" s="99" t="n">
+      <x:c r="G34" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H34" s="100" t="s">
+      <x:c r="H34" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I34" s="101" t="n">
+      <x:c r="I34" s="94" t="n">
         <x:v>4317.75</x:v>
       </x:c>
-      <x:c r="J34" s="102" t="s"/>
+      <x:c r="J34" s="94" t="s"/>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="B35" s="103" t="s"/>
-      <x:c r="C35" s="104">
+      <x:c r="B35" s="96" t="s"/>
+      <x:c r="C35" s="97">
         <x:v>34694</x:v>
       </x:c>
-      <x:c r="D35" s="105" t="s"/>
-      <x:c r="E35" s="106" t="s"/>
-      <x:c r="F35" s="107" t="s"/>
-      <x:c r="G35" s="107" t="s"/>
-      <x:c r="H35" s="108">
+      <x:c r="D35" s="98" t="s"/>
+      <x:c r="E35" s="93" t="s"/>
+      <x:c r="F35" s="94" t="s"/>
+      <x:c r="G35" s="94" t="s"/>
+      <x:c r="H35" s="94">
         <x:f>G34-$J$4</x:f>
       </x:c>
-      <x:c r="I35" s="109" t="s"/>
-      <x:c r="J35" s="110" t="s"/>
+      <x:c r="I35" s="94" t="s"/>
+      <x:c r="J35" s="94" t="s"/>
     </x:row>
     <x:row r="36" spans="1:10">
       <x:c r="A36" s="42" t="s"/>
-      <x:c r="B36" s="111" t="s"/>
+      <x:c r="B36" s="99" t="s"/>
       <x:c r="C36" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2050,49 +1975,49 @@
       <x:c r="J36" s="63" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="A37" s="94" t="s"/>
-      <x:c r="B37" s="95" t="n">
+      <x:c r="A37" s="89" t="s"/>
+      <x:c r="B37" s="90" t="n">
         <x:v>1305</x:v>
       </x:c>
-      <x:c r="C37" s="96">
+      <x:c r="C37" s="91">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D37" s="97" t="s"/>
-      <x:c r="E37" s="98" t="s">
+      <x:c r="D37" s="92" t="s"/>
+      <x:c r="E37" s="93" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="F37" s="99" t="n">
+      <x:c r="F37" s="94" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="G37" s="99" t="n">
+      <x:c r="G37" s="94" t="n">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="H37" s="100" t="s">
+      <x:c r="H37" s="95" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="I37" s="101" t="n">
+      <x:c r="I37" s="94" t="n">
         <x:v>3065</x:v>
       </x:c>
-      <x:c r="J37" s="102" t="s"/>
+      <x:c r="J37" s="94" t="s"/>
     </x:row>
     <x:row r="38" spans="1:10">
-      <x:c r="B38" s="103" t="s"/>
-      <x:c r="C38" s="104">
+      <x:c r="B38" s="96" t="s"/>
+      <x:c r="C38" s="97">
         <x:v>34719</x:v>
       </x:c>
-      <x:c r="D38" s="105" t="s"/>
-      <x:c r="E38" s="106" t="s"/>
-      <x:c r="F38" s="107" t="s"/>
-      <x:c r="G38" s="107" t="s"/>
-      <x:c r="H38" s="108">
+      <x:c r="D38" s="98" t="s"/>
+      <x:c r="E38" s="93" t="s"/>
+      <x:c r="F38" s="94" t="s"/>
+      <x:c r="G38" s="94" t="s"/>
+      <x:c r="H38" s="94">
         <x:f>G37-$J$4</x:f>
       </x:c>
-      <x:c r="I38" s="109" t="s"/>
-      <x:c r="J38" s="110" t="s"/>
+      <x:c r="I38" s="94" t="s"/>
+      <x:c r="J38" s="94" t="s"/>
     </x:row>
     <x:row r="39" spans="1:10">
       <x:c r="A39" s="42" t="s"/>
-      <x:c r="B39" s="111" t="s"/>
+      <x:c r="B39" s="99" t="s"/>
       <x:c r="C39" s="29" t="s">
         <x:v>22</x:v>
       </x:c>
@@ -2120,19 +2045,19 @@
       </x:c>
     </x:row>
     <x:row r="41" spans="1:10">
-      <x:c r="B41" s="112" t="s">
+      <x:c r="B41" s="100" t="s">
         <x:v>28</x:v>
       </x:c>
       <x:c r="C41" s="15" t="s"/>
       <x:c r="D41" s="76" t="s"/>
-      <x:c r="F41" s="112" t="s">
+      <x:c r="F41" s="100" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="G41" s="113" t="s"/>
-      <x:c r="I41" s="114" t="s">
+      <x:c r="G41" s="101" t="s"/>
+      <x:c r="I41" s="102" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="J41" s="115" t="s"/>
+      <x:c r="J41" s="103" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="59">
